--- a/model/model_inputs_testing_v3.xlsx
+++ b/model/model_inputs_testing_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7AC30D-44EE-4C80-86F6-01AE59499530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2E060-A163-4DEE-9948-32062468E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1485" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="elec_demand (1)" sheetId="3" r:id="rId10"/>
     <sheet name="elec_demand (2)" sheetId="9" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -714,101 +711,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="September"/>
-      <sheetName val="August"/>
-      <sheetName val="Jänner"/>
-      <sheetName val="PV August"/>
-      <sheetName val="PV September"/>
-      <sheetName val="PV January"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>0.41</v>
-          </cell>
-          <cell r="C4">
-            <v>0.4</v>
-          </cell>
-          <cell r="D4">
-            <v>0.38</v>
-          </cell>
-          <cell r="E4">
-            <v>0.36</v>
-          </cell>
-          <cell r="F4">
-            <v>0.34</v>
-          </cell>
-          <cell r="G4">
-            <v>0.32</v>
-          </cell>
-          <cell r="H4">
-            <v>0.61</v>
-          </cell>
-          <cell r="I4">
-            <v>0.77</v>
-          </cell>
-          <cell r="J4">
-            <v>0.96</v>
-          </cell>
-          <cell r="K4">
-            <v>0.88</v>
-          </cell>
-          <cell r="L4">
-            <v>0.85</v>
-          </cell>
-          <cell r="M4">
-            <v>0.85</v>
-          </cell>
-          <cell r="N4">
-            <v>1.19</v>
-          </cell>
-          <cell r="O4">
-            <v>1.29</v>
-          </cell>
-          <cell r="P4">
-            <v>1.2</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.94</v>
-          </cell>
-          <cell r="R4">
-            <v>0.48</v>
-          </cell>
-          <cell r="S4">
-            <v>0.4</v>
-          </cell>
-          <cell r="T4">
-            <v>0.44</v>
-          </cell>
-          <cell r="U4">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="V4">
-            <v>0.73</v>
-          </cell>
-          <cell r="W4">
-            <v>0.7</v>
-          </cell>
-          <cell r="X4">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1128,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1200,473 +1102,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABED9F3-A079-4BB6-8141-C898B88CBE8C}">
-  <dimension ref="A1:Y31"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="25" width="6.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>0.43250000000000011</v>
-      </c>
-      <c r="C2">
-        <v>0.43</v>
-      </c>
-      <c r="D2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.40749999999999997</v>
-      </c>
-      <c r="H2">
-        <v>0.39750000000000002</v>
-      </c>
-      <c r="I2">
-        <v>0.48249999999999998</v>
-      </c>
-      <c r="J2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K2">
-        <v>0.74249999999999994</v>
-      </c>
-      <c r="L2">
-        <v>0.89749999999999996</v>
-      </c>
-      <c r="M2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N2">
-        <v>1.2124999999999999</v>
-      </c>
-      <c r="O2">
-        <v>1.3274999999999999</v>
-      </c>
-      <c r="P2">
-        <v>1.22</v>
-      </c>
-      <c r="Q2">
-        <v>1.1074999999999999</v>
-      </c>
-      <c r="R2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="S2">
-        <v>0.55249999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.3725</v>
-      </c>
-      <c r="U2">
-        <v>0.34</v>
-      </c>
-      <c r="V2">
-        <v>0.48</v>
-      </c>
-      <c r="W2">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="X2">
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="Y2">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>0.28249999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0.255</v>
-      </c>
-      <c r="F3">
-        <v>0.25</v>
-      </c>
-      <c r="G3">
-        <v>0.245</v>
-      </c>
-      <c r="H3">
-        <v>0.25750000000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.4325</v>
-      </c>
-      <c r="J3">
-        <v>0.48249999999999987</v>
-      </c>
-      <c r="K3">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="L3">
-        <v>0.79249999999999998</v>
-      </c>
-      <c r="M3">
-        <v>0.85500000000000009</v>
-      </c>
-      <c r="N3">
-        <v>0.95750000000000002</v>
-      </c>
-      <c r="O3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P3">
-        <v>1.1025</v>
-      </c>
-      <c r="Q3">
-        <v>1.1074999999999999</v>
-      </c>
-      <c r="R3">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="S3">
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="T3">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="U3">
-        <v>0.36</v>
-      </c>
-      <c r="V3">
-        <v>0.47</v>
-      </c>
-      <c r="W3">
-        <v>0.505</v>
-      </c>
-      <c r="X3">
-        <v>0.48</v>
-      </c>
-      <c r="Y3">
-        <v>0.41249999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <f>[1]September!B4 *1.5</f>
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="C4">
-        <f>[1]September!C4 *1.5</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="D4">
-        <f>[1]September!D4 *1.5</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="E4">
-        <f>[1]September!E4 *1.5</f>
-        <v>0.54</v>
-      </c>
-      <c r="F4">
-        <f>[1]September!F4 *1.5</f>
-        <v>0.51</v>
-      </c>
-      <c r="G4">
-        <f>[1]September!G4 *1.5</f>
-        <v>0.48</v>
-      </c>
-      <c r="H4">
-        <f>[1]September!H4 *1.5</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I4">
-        <f>[1]September!I4 *1.5</f>
-        <v>1.155</v>
-      </c>
-      <c r="J4">
-        <f>[1]September!J4 *1.5</f>
-        <v>1.44</v>
-      </c>
-      <c r="K4">
-        <f>[1]September!K4 *1.5</f>
-        <v>1.32</v>
-      </c>
-      <c r="L4">
-        <f>[1]September!L4 *1.5</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="M4">
-        <f>[1]September!M4 *1.5</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="N4">
-        <f>[1]September!N4 *1.5</f>
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="O4">
-        <f>[1]September!O4 *1.5</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="P4">
-        <f>[1]September!P4 *1.5</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="Q4">
-        <f>[1]September!Q4 *1.5</f>
-        <v>1.41</v>
-      </c>
-      <c r="R4">
-        <f>[1]September!R4 *1.5</f>
-        <v>0.72</v>
-      </c>
-      <c r="S4">
-        <f>[1]September!S4 *1.5</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T4">
-        <f>[1]September!T4 *1.5</f>
-        <v>0.66</v>
-      </c>
-      <c r="U4">
-        <f>[1]September!U4 *1.5</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="V4">
-        <f>[1]September!V4 *1.5</f>
-        <v>1.095</v>
-      </c>
-      <c r="W4">
-        <f>[1]September!W4 *1.5</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="X4">
-        <f>[1]September!X4 *1.5</f>
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="Y4">
-        <f>[1]September!Y4 *1.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F374D-6AFF-43B6-B370-B2ECC1DAC459}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1757,61 +1192,61 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.43250000000000011</v>
+        <v>0.43</v>
       </c>
       <c r="C2">
         <v>0.43</v>
       </c>
       <c r="D2">
-        <v>0.42499999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="E2">
-        <v>0.42249999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="F2">
-        <v>0.42249999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G2">
-        <v>0.40749999999999997</v>
+        <v>0.41</v>
       </c>
       <c r="H2">
-        <v>0.39750000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.48249999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="J2">
         <v>0.56000000000000005</v>
       </c>
       <c r="K2">
-        <v>0.74249999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="L2">
-        <v>0.89749999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="M2">
         <v>1.1399999999999999</v>
       </c>
       <c r="N2">
-        <v>1.2124999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="O2">
-        <v>1.3274999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="P2">
         <v>1.22</v>
       </c>
       <c r="Q2">
-        <v>1.1074999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="R2">
-        <v>0.97499999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="S2">
-        <v>0.55249999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2">
-        <v>0.3725</v>
+        <v>0.37</v>
       </c>
       <c r="U2">
         <v>0.34</v>
@@ -1820,13 +1255,13 @@
         <v>0.48</v>
       </c>
       <c r="W2">
-        <v>0.53249999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="X2">
-        <v>0.53249999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="Y2">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1834,61 +1269,61 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>0.28249999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C3">
-        <v>0.26250000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="D3">
         <v>0.25</v>
       </c>
       <c r="E3">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="F3">
         <v>0.25</v>
       </c>
       <c r="G3">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
-        <v>0.25750000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I3">
-        <v>0.4325</v>
+        <v>0.43</v>
       </c>
       <c r="J3">
-        <v>0.48249999999999987</v>
+        <v>0.48</v>
       </c>
       <c r="K3">
-        <v>0.64249999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="L3">
-        <v>0.79249999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="M3">
-        <v>0.85500000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="N3">
-        <v>0.95750000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="O3">
         <v>1.1200000000000001</v>
       </c>
       <c r="P3">
-        <v>1.1025</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q3">
-        <v>1.1074999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="R3">
-        <v>0.85750000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="S3">
-        <v>0.44750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="T3">
-        <v>0.30249999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="U3">
         <v>0.36</v>
@@ -1897,13 +1332,13 @@
         <v>0.47</v>
       </c>
       <c r="W3">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>0.48</v>
       </c>
       <c r="Y3">
-        <v>0.41249999999999998</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1911,100 +1346,520 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <f>[1]September!B4 *1.5</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.39</v>
+      </c>
+      <c r="D4">
+        <v>0.375</v>
+      </c>
+      <c r="E4">
+        <v>0.39</v>
+      </c>
+      <c r="F4">
+        <v>0.375</v>
+      </c>
+      <c r="G4">
+        <v>0.375</v>
+      </c>
+      <c r="H4">
+        <v>0.39</v>
+      </c>
+      <c r="I4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.72</v>
+      </c>
+      <c r="K4">
+        <v>0.96</v>
+      </c>
+      <c r="L4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="M4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.44</v>
+      </c>
+      <c r="O4">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1.665</v>
+      </c>
+      <c r="R4">
+        <v>1.29</v>
+      </c>
+      <c r="S4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="T4">
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.54</v>
+      </c>
+      <c r="V4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="W4">
+        <v>0.75</v>
+      </c>
+      <c r="X4">
+        <v>0.72</v>
+      </c>
+      <c r="Y4">
         <v>0.61499999999999999</v>
       </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F374D-6AFF-43B6-B370-B2ECC1DAC459}">
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="25" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0.43</v>
+      </c>
+      <c r="C2">
+        <v>0.43</v>
+      </c>
+      <c r="D2">
+        <v>0.43</v>
+      </c>
+      <c r="E2">
+        <v>0.42</v>
+      </c>
+      <c r="F2">
+        <v>0.42</v>
+      </c>
+      <c r="G2">
+        <v>0.41</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>0.48</v>
+      </c>
+      <c r="J2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.74</v>
+      </c>
+      <c r="L2">
+        <v>0.9</v>
+      </c>
+      <c r="M2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N2">
+        <v>1.21</v>
+      </c>
+      <c r="O2">
+        <v>1.33</v>
+      </c>
+      <c r="P2">
+        <v>1.22</v>
+      </c>
+      <c r="Q2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.97</v>
+      </c>
+      <c r="S2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.37</v>
+      </c>
+      <c r="U2">
+        <v>0.34</v>
+      </c>
+      <c r="V2">
+        <v>0.48</v>
+      </c>
+      <c r="W2">
+        <v>0.53</v>
+      </c>
+      <c r="X2">
+        <v>0.53</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.26</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0.26</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0.26</v>
+      </c>
+      <c r="I3">
+        <v>0.43</v>
+      </c>
+      <c r="J3">
+        <v>0.48</v>
+      </c>
+      <c r="K3">
+        <v>0.64</v>
+      </c>
+      <c r="L3">
+        <v>0.79</v>
+      </c>
+      <c r="M3">
+        <v>0.85</v>
+      </c>
+      <c r="N3">
+        <v>0.96</v>
+      </c>
+      <c r="O3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.86</v>
+      </c>
+      <c r="S3">
+        <v>0.45</v>
+      </c>
+      <c r="T3">
+        <v>0.31</v>
+      </c>
+      <c r="U3">
+        <v>0.36</v>
+      </c>
+      <c r="V3">
+        <v>0.47</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.48</v>
+      </c>
+      <c r="Y3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0.42000000000000004</v>
+      </c>
       <c r="C4">
-        <f>[1]September!C4 *1.5</f>
-        <v>0.60000000000000009</v>
+        <v>0.39</v>
       </c>
       <c r="D4">
-        <f>[1]September!D4 *1.5</f>
-        <v>0.57000000000000006</v>
+        <v>0.375</v>
       </c>
       <c r="E4">
-        <f>[1]September!E4 *1.5</f>
+        <v>0.39</v>
+      </c>
+      <c r="F4">
+        <v>0.375</v>
+      </c>
+      <c r="G4">
+        <v>0.375</v>
+      </c>
+      <c r="H4">
+        <v>0.39</v>
+      </c>
+      <c r="I4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.72</v>
+      </c>
+      <c r="K4">
+        <v>0.96</v>
+      </c>
+      <c r="L4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="M4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.44</v>
+      </c>
+      <c r="O4">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="P4">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1.665</v>
+      </c>
+      <c r="R4">
+        <v>1.29</v>
+      </c>
+      <c r="S4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="T4">
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="U4">
         <v>0.54</v>
       </c>
-      <c r="F4">
-        <f>[1]September!F4 *1.5</f>
-        <v>0.51</v>
-      </c>
-      <c r="G4">
-        <f>[1]September!G4 *1.5</f>
-        <v>0.48</v>
-      </c>
-      <c r="H4">
-        <f>[1]September!H4 *1.5</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I4">
-        <f>[1]September!I4 *1.5</f>
-        <v>1.155</v>
-      </c>
-      <c r="J4">
-        <f>[1]September!J4 *1.5</f>
-        <v>1.44</v>
-      </c>
-      <c r="K4">
-        <f>[1]September!K4 *1.5</f>
-        <v>1.32</v>
-      </c>
-      <c r="L4">
-        <f>[1]September!L4 *1.5</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="M4">
-        <f>[1]September!M4 *1.5</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="N4">
-        <f>[1]September!N4 *1.5</f>
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="O4">
-        <f>[1]September!O4 *1.5</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="P4">
-        <f>[1]September!P4 *1.5</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="Q4">
-        <f>[1]September!Q4 *1.5</f>
-        <v>1.41</v>
-      </c>
-      <c r="R4">
-        <f>[1]September!R4 *1.5</f>
+      <c r="V4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="W4">
+        <v>0.75</v>
+      </c>
+      <c r="X4">
         <v>0.72</v>
       </c>
-      <c r="S4">
-        <f>[1]September!S4 *1.5</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="T4">
-        <f>[1]September!T4 *1.5</f>
-        <v>0.66</v>
-      </c>
-      <c r="U4">
-        <f>[1]September!U4 *1.5</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="V4">
-        <f>[1]September!V4 *1.5</f>
-        <v>1.095</v>
-      </c>
-      <c r="W4">
-        <f>[1]September!W4 *1.5</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="X4">
-        <f>[1]September!X4 *1.5</f>
-        <v>0.86999999999999988</v>
-      </c>
       <c r="Y4">
-        <f>[1]September!Y4 *1.5</f>
-        <v>0</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2750,17 +2605,17 @@
       <c r="C2">
         <v>0.37</v>
       </c>
-      <c r="G2">
-        <f xml:space="preserve"> SUM('elec_demand (1)'!$B2:$Y2)</f>
-        <v>15.917500000000004</v>
+      <c r="G2" t="e">
+        <f xml:space="preserve"> SUM('elec_demand (1)'!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="H2">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B2:$Y2)</f>
-        <v>15.917500000000004</v>
+        <v>15.9</v>
       </c>
       <c r="I2">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B2:$Y2)</f>
-        <v>15.917500000000004</v>
+        <v>15.9</v>
       </c>
       <c r="J2" t="e">
         <f xml:space="preserve"> SUM(#REF!)</f>
@@ -2787,15 +2642,15 @@
       </c>
       <c r="G3">
         <f xml:space="preserve"> SUM('elec_demand (1)'!B3:Y3)</f>
-        <v>13.13</v>
+        <v>13.129999999999999</v>
       </c>
       <c r="H3">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B3:$Y3)</f>
-        <v>13.13</v>
+        <v>13.129999999999999</v>
       </c>
       <c r="I3">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B3:$Y3)</f>
-        <v>13.13</v>
+        <v>13.129999999999999</v>
       </c>
       <c r="J3" t="e">
         <f xml:space="preserve"> SUM(#REF!)</f>
@@ -2822,15 +2677,15 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> SUM('elec_demand (1)'!B4:Y4)</f>
-        <v>23.475000000000005</v>
+        <v>19.694999999999993</v>
       </c>
       <c r="H4">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B4:$Y4)</f>
-        <v>23.475000000000005</v>
+        <v>19.694999999999993</v>
       </c>
       <c r="I4">
         <f xml:space="preserve"> SUM('elec_demand (2)'!$B4:$Y4)</f>
-        <v>23.475000000000005</v>
+        <v>19.694999999999993</v>
       </c>
       <c r="J4" t="e">
         <f xml:space="preserve"> SUM(#REF!)</f>

--- a/model/model_inputs_testing_v3.xlsx
+++ b/model/model_inputs_testing_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2E060-A163-4DEE-9948-32062468E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE04A8B-0C70-4629-A403-7EE65435F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -296,6 +296,1746 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'elec_demand (1)'!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-057D-422A-9B0F-1C7A4F579CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="164066111"/>
+        <c:axId val="164066527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164066111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164066527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8928258967629044E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'elec_demand (1)'!$B$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79C3-4308-BBD4-381C4DAEB75F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2132628863"/>
+        <c:axId val="2132632607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2132628863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132632607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132632607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132628863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,6 +2451,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122FBC7A-822A-4054-B853-F86505FC4C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E173C4A0-0321-4C1A-ADA7-0957CC54BD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1031,7 +2848,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1105,7 +2922,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1541,6 +3358,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1548,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F374D-6AFF-43B6-B370-B2ECC1DAC459}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
@@ -1990,7 +3808,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2051,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CDF95-CF95-4796-ABE1-012E5312AEC2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2114,10 +3932,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -2160,7 +3978,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2473,7 +4291,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2493,7 +4311,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2710,7 +4528,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2804,52 +4622,52 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.02</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>0.15</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>0.34</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>0.5</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.63</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.7</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.73</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.72</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>0.66</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.4</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.21</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0.05</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2884,49 +4702,49 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0.12</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.33</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>0.51</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.65</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>0.73</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.76</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0.74</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>0.68</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>0.39</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>0.19</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0.02</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2964,40 +4782,40 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.16</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.35</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.49</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.61</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.49</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.36</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.19</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.03</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>

--- a/model/model_inputs_testing_v3.xlsx
+++ b/model/model_inputs_testing_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE04A8B-0C70-4629-A403-7EE65435F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53885656-9E46-41E3-B747-7363C4D27D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/model/model_inputs_testing_v3.xlsx
+++ b/model/model_inputs_testing_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53885656-9E46-41E3-B747-7363C4D27D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDA880-316F-43D7-89E8-5FB43792FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -3869,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CDF95-CF95-4796-ABE1-012E5312AEC2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4527,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7DE72-C341-45B3-B73B-C7F84D832AAF}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/model/model_inputs_testing_v3.xlsx
+++ b/model/model_inputs_testing_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDA880-316F-43D7-89E8-5FB43792FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CEDBFD-99E7-4C3A-AB5E-DAD7F9F5F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -3869,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CDF95-CF95-4796-ABE1-012E5312AEC2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3909,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -4006,7 +4006,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4527,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7DE72-C341-45B3-B73B-C7F84D832AAF}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
